--- a/examples/example-timetable_school.xlsx
+++ b/examples/example-timetable_school.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Programming\cpp\entity_organisation_program\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Programming\cpp\entity_organisation_program\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09D0176-C4B9-4BC2-B271-3287818AA7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEDC46B-9547-470A-B1BF-E15182FD6DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" activeTab="3" xr2:uid="{41FF037C-E733-4109-8018-268BF2C7ACEB}"/>
   </bookViews>
@@ -1562,10 +1562,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3104,8 +3104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4E41F3-4A4C-475D-99C5-FF7DC7D3C49B}">
   <dimension ref="A1:AG196"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="N99" sqref="N99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3118,89 +3118,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
       <c r="AF1" s="4"/>
       <c r="AG1" s="4"/>
     </row>
     <row r="2" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
+      <c r="D2" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
     </row>
     <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="23" t="s">
         <v>11</v>
       </c>
@@ -3229,10 +3229,10 @@
         <v>17</v>
       </c>
       <c r="Q3" s="23"/>
-      <c r="R3" s="25" t="s">
+      <c r="R3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="25"/>
+      <c r="S3" s="24"/>
       <c r="T3" s="23" t="s">
         <v>19</v>
       </c>
@@ -3262,9 +3262,9 @@
       </c>
     </row>
     <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
@@ -15231,11 +15231,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="A2:A4"/>
@@ -15250,6 +15245,11 @@
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -15273,12 +15273,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="A1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -15502,17 +15502,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -15937,85 +15937,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
     </row>
     <row r="2" spans="1:32" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
     </row>
     <row r="3" spans="1:32" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="23" t="s">
         <v>11</v>
       </c>
@@ -16077,9 +16077,9 @@
       </c>
     </row>
     <row r="4" spans="1:32" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="6" t="s">
         <v>273</v>
       </c>
@@ -17459,11 +17459,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="A2:A4"/>
@@ -17478,6 +17473,11 @@
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>

--- a/examples/example-timetable_school.xlsx
+++ b/examples/example-timetable_school.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Programming\cpp\entity_organisation_program\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEDC46B-9547-470A-B1BF-E15182FD6DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2846AD9A-C02C-49B1-B4A8-7A94E409538E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" activeTab="3" xr2:uid="{41FF037C-E733-4109-8018-268BF2C7ACEB}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2364" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="319">
   <si>
     <t>District Cells</t>
   </si>
@@ -797,9 +797,6 @@
     <t>period-3_break-1</t>
   </si>
   <si>
-    <t>period-3-break-2_only</t>
-  </si>
-  <si>
     <t>(year, 10)</t>
   </si>
   <si>
@@ -824,9 +821,6 @@
     <t>period-5_lunch-1</t>
   </si>
   <si>
-    <t>period-5-lunch-2_only</t>
-  </si>
-  <si>
     <t>period-5_lunch-2</t>
   </si>
   <si>
@@ -957,13 +951,46 @@
   </si>
   <si>
     <t>options-6</t>
+  </si>
+  <si>
+    <t>Disable  Drop Iteration Count</t>
+  </si>
+  <si>
+    <t>[period-3_break-2_only, 0]</t>
+  </si>
+  <si>
+    <t>[period-3_break-1_only, 0]</t>
+  </si>
+  <si>
+    <t>[period-5_lunch-1_only, 0]</t>
+  </si>
+  <si>
+    <t>[period-5_lunch-2_only, 0]</t>
+  </si>
+  <si>
+    <t>period-3_break-2_only</t>
+  </si>
+  <si>
+    <t>period-5_lunch-2_only</t>
+  </si>
+  <si>
+    <t>[period-3, (year, 11)]</t>
+  </si>
+  <si>
+    <t>[period-3, (year, 10)]</t>
+  </si>
+  <si>
+    <t>[period-5, (year, 11)]</t>
+  </si>
+  <si>
+    <t>[period-5, (year, 10)]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1146,6 +1173,11 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
@@ -1491,7 +1523,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1552,6 +1584,9 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1964,56 +1999,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="21"/>
-      <c r="AT1" s="21"/>
-      <c r="AU1" s="21"/>
-      <c r="AV1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
     </row>
     <row r="2" spans="1:57" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -2115,16 +2150,16 @@
       <c r="AW2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AX2" s="22" t="s">
+      <c r="AX2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="AY2" s="22"/>
-      <c r="AZ2" s="22"/>
-      <c r="BA2" s="22"/>
-      <c r="BB2" s="22"/>
-      <c r="BC2" s="22"/>
-      <c r="BD2" s="22"/>
-      <c r="BE2" s="22"/>
+      <c r="AY2" s="23"/>
+      <c r="AZ2" s="23"/>
+      <c r="BA2" s="23"/>
+      <c r="BB2" s="23"/>
+      <c r="BC2" s="23"/>
+      <c r="BD2" s="23"/>
+      <c r="BE2" s="23"/>
     </row>
     <row r="3" spans="1:57" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -2223,14 +2258,14 @@
       <c r="AF3" s="1">
         <v>0</v>
       </c>
-      <c r="AX3" s="22"/>
-      <c r="AY3" s="22"/>
-      <c r="AZ3" s="22"/>
-      <c r="BA3" s="22"/>
-      <c r="BB3" s="22"/>
-      <c r="BC3" s="22"/>
-      <c r="BD3" s="22"/>
-      <c r="BE3" s="22"/>
+      <c r="AX3" s="23"/>
+      <c r="AY3" s="23"/>
+      <c r="AZ3" s="23"/>
+      <c r="BA3" s="23"/>
+      <c r="BB3" s="23"/>
+      <c r="BC3" s="23"/>
+      <c r="BD3" s="23"/>
+      <c r="BE3" s="23"/>
     </row>
     <row r="4" spans="1:57" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -2329,14 +2364,14 @@
       <c r="AF4" s="1">
         <v>0</v>
       </c>
-      <c r="AX4" s="22"/>
-      <c r="AY4" s="22"/>
-      <c r="AZ4" s="22"/>
-      <c r="BA4" s="22"/>
-      <c r="BB4" s="22"/>
-      <c r="BC4" s="22"/>
-      <c r="BD4" s="22"/>
-      <c r="BE4" s="22"/>
+      <c r="AX4" s="23"/>
+      <c r="AY4" s="23"/>
+      <c r="AZ4" s="23"/>
+      <c r="BA4" s="23"/>
+      <c r="BB4" s="23"/>
+      <c r="BC4" s="23"/>
+      <c r="BD4" s="23"/>
+      <c r="BE4" s="23"/>
     </row>
     <row r="7" spans="1:57" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -2411,16 +2446,16 @@
       <c r="AL7" s="1">
         <v>8</v>
       </c>
-      <c r="AX7" s="22" t="s">
+      <c r="AX7" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="AY7" s="22"/>
-      <c r="AZ7" s="22"/>
-      <c r="BA7" s="22"/>
-      <c r="BB7" s="22"/>
-      <c r="BC7" s="22"/>
-      <c r="BD7" s="22"/>
-      <c r="BE7" s="22"/>
+      <c r="AY7" s="23"/>
+      <c r="AZ7" s="23"/>
+      <c r="BA7" s="23"/>
+      <c r="BB7" s="23"/>
+      <c r="BC7" s="23"/>
+      <c r="BD7" s="23"/>
+      <c r="BE7" s="23"/>
     </row>
     <row r="8" spans="1:57" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -2495,14 +2530,14 @@
       <c r="AL8" s="1">
         <v>8</v>
       </c>
-      <c r="AX8" s="22"/>
-      <c r="AY8" s="22"/>
-      <c r="AZ8" s="22"/>
-      <c r="BA8" s="22"/>
-      <c r="BB8" s="22"/>
-      <c r="BC8" s="22"/>
-      <c r="BD8" s="22"/>
-      <c r="BE8" s="22"/>
+      <c r="AX8" s="23"/>
+      <c r="AY8" s="23"/>
+      <c r="AZ8" s="23"/>
+      <c r="BA8" s="23"/>
+      <c r="BB8" s="23"/>
+      <c r="BC8" s="23"/>
+      <c r="BD8" s="23"/>
+      <c r="BE8" s="23"/>
     </row>
     <row r="9" spans="1:57" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -2577,14 +2612,14 @@
       <c r="AL9" s="1">
         <v>8</v>
       </c>
-      <c r="AX9" s="22"/>
-      <c r="AY9" s="22"/>
-      <c r="AZ9" s="22"/>
-      <c r="BA9" s="22"/>
-      <c r="BB9" s="22"/>
-      <c r="BC9" s="22"/>
-      <c r="BD9" s="22"/>
-      <c r="BE9" s="22"/>
+      <c r="AX9" s="23"/>
+      <c r="AY9" s="23"/>
+      <c r="AZ9" s="23"/>
+      <c r="BA9" s="23"/>
+      <c r="BB9" s="23"/>
+      <c r="BC9" s="23"/>
+      <c r="BD9" s="23"/>
+      <c r="BE9" s="23"/>
     </row>
     <row r="12" spans="1:57" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -2677,16 +2712,16 @@
       <c r="AV12" s="1">
         <v>18</v>
       </c>
-      <c r="AX12" s="22" t="s">
+      <c r="AX12" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="AY12" s="22"/>
-      <c r="AZ12" s="22"/>
-      <c r="BA12" s="22"/>
-      <c r="BB12" s="22"/>
-      <c r="BC12" s="22"/>
-      <c r="BD12" s="22"/>
-      <c r="BE12" s="22"/>
+      <c r="AY12" s="23"/>
+      <c r="AZ12" s="23"/>
+      <c r="BA12" s="23"/>
+      <c r="BB12" s="23"/>
+      <c r="BC12" s="23"/>
+      <c r="BD12" s="23"/>
+      <c r="BE12" s="23"/>
     </row>
     <row r="13" spans="1:57" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -2779,14 +2814,14 @@
       <c r="AV13" s="1">
         <v>18</v>
       </c>
-      <c r="AX13" s="22"/>
-      <c r="AY13" s="22"/>
-      <c r="AZ13" s="22"/>
-      <c r="BA13" s="22"/>
-      <c r="BB13" s="22"/>
-      <c r="BC13" s="22"/>
-      <c r="BD13" s="22"/>
-      <c r="BE13" s="22"/>
+      <c r="AX13" s="23"/>
+      <c r="AY13" s="23"/>
+      <c r="AZ13" s="23"/>
+      <c r="BA13" s="23"/>
+      <c r="BB13" s="23"/>
+      <c r="BC13" s="23"/>
+      <c r="BD13" s="23"/>
+      <c r="BE13" s="23"/>
     </row>
     <row r="14" spans="1:57" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -2879,14 +2914,14 @@
       <c r="AV14" s="1">
         <v>18</v>
       </c>
-      <c r="AX14" s="22"/>
-      <c r="AY14" s="22"/>
-      <c r="AZ14" s="22"/>
-      <c r="BA14" s="22"/>
-      <c r="BB14" s="22"/>
-      <c r="BC14" s="22"/>
-      <c r="BD14" s="22"/>
-      <c r="BE14" s="22"/>
+      <c r="AX14" s="23"/>
+      <c r="AY14" s="23"/>
+      <c r="AZ14" s="23"/>
+      <c r="BA14" s="23"/>
+      <c r="BB14" s="23"/>
+      <c r="BC14" s="23"/>
+      <c r="BD14" s="23"/>
+      <c r="BE14" s="23"/>
     </row>
     <row r="17" spans="1:57" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -2943,16 +2978,16 @@
       <c r="AB17" s="1">
         <v>24</v>
       </c>
-      <c r="AX17" s="22" t="s">
+      <c r="AX17" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AY17" s="22"/>
-      <c r="AZ17" s="22"/>
-      <c r="BA17" s="22"/>
-      <c r="BB17" s="22"/>
-      <c r="BC17" s="22"/>
-      <c r="BD17" s="22"/>
-      <c r="BE17" s="22"/>
+      <c r="AY17" s="23"/>
+      <c r="AZ17" s="23"/>
+      <c r="BA17" s="23"/>
+      <c r="BB17" s="23"/>
+      <c r="BC17" s="23"/>
+      <c r="BD17" s="23"/>
+      <c r="BE17" s="23"/>
     </row>
     <row r="18" spans="1:57" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -3009,14 +3044,14 @@
       <c r="AB18" s="1">
         <v>24</v>
       </c>
-      <c r="AX18" s="22"/>
-      <c r="AY18" s="22"/>
-      <c r="AZ18" s="22"/>
-      <c r="BA18" s="22"/>
-      <c r="BB18" s="22"/>
-      <c r="BC18" s="22"/>
-      <c r="BD18" s="22"/>
-      <c r="BE18" s="22"/>
+      <c r="AX18" s="23"/>
+      <c r="AY18" s="23"/>
+      <c r="AZ18" s="23"/>
+      <c r="BA18" s="23"/>
+      <c r="BB18" s="23"/>
+      <c r="BC18" s="23"/>
+      <c r="BD18" s="23"/>
+      <c r="BE18" s="23"/>
     </row>
     <row r="19" spans="1:57" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -3073,14 +3108,14 @@
       <c r="AB19" s="1">
         <v>24</v>
       </c>
-      <c r="AX19" s="22"/>
-      <c r="AY19" s="22"/>
-      <c r="AZ19" s="22"/>
-      <c r="BA19" s="22"/>
-      <c r="BB19" s="22"/>
-      <c r="BC19" s="22"/>
-      <c r="BD19" s="22"/>
-      <c r="BE19" s="22"/>
+      <c r="AX19" s="23"/>
+      <c r="AY19" s="23"/>
+      <c r="AZ19" s="23"/>
+      <c r="BA19" s="23"/>
+      <c r="BB19" s="23"/>
+      <c r="BC19" s="23"/>
+      <c r="BD19" s="23"/>
+      <c r="BE19" s="23"/>
     </row>
     <row r="20" spans="1:57" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -3104,8 +3139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4E41F3-4A4C-475D-99C5-FF7DC7D3C49B}">
   <dimension ref="A1:AG196"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="N99" sqref="N99"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3118,153 +3153,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
       <c r="AF1" s="4"/>
       <c r="AG1" s="4"/>
     </row>
     <row r="2" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
+      <c r="D2" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
     </row>
     <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23" t="s">
+      <c r="G3" s="24"/>
+      <c r="H3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23" t="s">
+      <c r="I3" s="24"/>
+      <c r="J3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23" t="s">
+      <c r="K3" s="24"/>
+      <c r="L3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23" t="s">
+      <c r="M3" s="24"/>
+      <c r="N3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23" t="s">
+      <c r="O3" s="24"/>
+      <c r="P3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="24" t="s">
+      <c r="Q3" s="24"/>
+      <c r="R3" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="24"/>
-      <c r="T3" s="23" t="s">
+      <c r="S3" s="25"/>
+      <c r="T3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23" t="s">
+      <c r="U3" s="24"/>
+      <c r="V3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23" t="s">
+      <c r="W3" s="24"/>
+      <c r="X3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23" t="s">
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23" t="s">
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23" t="s">
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AE3" s="23"/>
+      <c r="AE3" s="24"/>
       <c r="AF3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
@@ -15231,7 +15266,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="X3:Y3"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
@@ -15250,6 +15284,7 @@
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -15273,12 +15308,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="A1" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -15482,443 +15517,538 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B013458-3FFF-4982-A44F-299B41089B86}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
     <col min="8" max="8" width="30.7109375" customWidth="1"/>
-    <col min="9" max="9" width="35.7109375" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" customWidth="1"/>
+    <col min="10" max="10" width="35.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-    </row>
-    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+    </row>
+    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>228</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>243</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="K3" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="K3" s="28"/>
-    </row>
-    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="29"/>
+    </row>
+    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>247</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="11"/>
+      <c r="J4" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="K4" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="K4" s="28"/>
-    </row>
-    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>252</v>
-      </c>
+      <c r="L4" s="29"/>
+    </row>
+    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="K5" s="28"/>
-    </row>
-    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="11"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="11"/>
+      <c r="C6" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="E6" s="11" t="s">
+        <v>233</v>
+      </c>
       <c r="F6" s="11"/>
-      <c r="G6" s="11" t="s">
-        <v>233</v>
-      </c>
+      <c r="G6" s="11"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="11"/>
+      <c r="J6" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-    </row>
-    <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="L6" s="27"/>
+    </row>
+    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="11" t="s">
+        <v>252</v>
+      </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="11"/>
+      <c r="J7" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-    </row>
-    <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="L7" s="29"/>
+    </row>
+    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="11"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="14" t="s">
+      <c r="G8" s="11"/>
+      <c r="H8" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="J8" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="16"/>
-    </row>
-    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+    </row>
+    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+        <v>313</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>256</v>
+      </c>
       <c r="G9" s="11"/>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+    </row>
+    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="I9" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="J9" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>261</v>
-      </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11" t="s">
-        <v>233</v>
-      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="14" t="s">
+      <c r="H10" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="J10" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="J10" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="K10" s="26"/>
-    </row>
-    <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>252</v>
-      </c>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="16"/>
+    </row>
+    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="K11" s="26"/>
-    </row>
-    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="11"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="11"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="E12" s="11" t="s">
+        <v>233</v>
+      </c>
       <c r="F12" s="11"/>
-      <c r="G12" s="11" t="s">
-        <v>233</v>
-      </c>
+      <c r="G12" s="11"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="11"/>
+      <c r="J12" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-    </row>
-    <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>257</v>
-      </c>
+      <c r="K12" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="L12" s="27"/>
+    </row>
+    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="11"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+    </row>
+    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="L14" s="27"/>
+    </row>
+    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="16"/>
-    </row>
-    <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-    </row>
-    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="J15" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="K15" s="26"/>
-    </row>
-    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K15" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L15" s="27"/>
+    </row>
+    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11" t="s">
-        <v>233</v>
-      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="14" t="s">
+      <c r="H16" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="J16" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="J16" s="27" t="s">
-        <v>249</v>
-      </c>
       <c r="K16" s="27"/>
-    </row>
-    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="11"/>
+      <c r="L16" s="27"/>
+    </row>
+    <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="E17" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>256</v>
+      </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
-    </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="11"/>
+      <c r="J17" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="16"/>
+    </row>
+    <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-    </row>
-    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="11"/>
+      <c r="H18" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+    </row>
+    <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
-    </row>
-    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="11"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+    </row>
+    <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
+      <c r="E20" s="11" t="s">
+        <v>233</v>
+      </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="11"/>
+      <c r="J20" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="L20" s="28"/>
+    </row>
+    <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
-    </row>
-    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="11"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="J11:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="K15:L18"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K7:L10"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K12:L12"/>
   </mergeCells>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15927,7 +16057,7 @@
   <dimension ref="A1:AF51"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15937,232 +16067,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+    </row>
+    <row r="2" spans="1:32" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-    </row>
-    <row r="2" spans="1:32" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="D2" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" s="25" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+    </row>
+    <row r="3" spans="1:32" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="E4" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-    </row>
-    <row r="3" spans="1:32" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>274</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="X4" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Y4" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z4" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AA4" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AB4" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AC4" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD4" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AE4" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16170,10 +16300,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -16217,10 +16347,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -16262,10 +16392,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -16307,10 +16437,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -16352,10 +16482,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -16429,10 +16559,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -16474,10 +16604,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -16519,10 +16649,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -16564,10 +16694,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -16613,10 +16743,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -16660,10 +16790,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -16707,10 +16837,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -16754,10 +16884,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -16801,10 +16931,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -16848,10 +16978,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -16895,10 +17025,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -16942,10 +17072,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -16993,10 +17123,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -17034,10 +17164,10 @@
         <v>18</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
@@ -17107,10 +17237,10 @@
         <v>19</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
@@ -17131,15 +17261,15 @@
       <c r="T29" s="11"/>
       <c r="U29" s="11"/>
       <c r="V29" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="W29" s="11"/>
       <c r="X29" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="Y29" s="11"/>
       <c r="Z29" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AA29" s="11"/>
       <c r="AB29" s="11" t="s">
@@ -17156,10 +17286,10 @@
         <v>20</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
@@ -17180,15 +17310,15 @@
       <c r="T30" s="11"/>
       <c r="U30" s="11"/>
       <c r="V30" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="W30" s="11"/>
       <c r="X30" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="Y30" s="11"/>
       <c r="Z30" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AA30" s="11"/>
       <c r="AB30" s="11" t="s">
@@ -17205,10 +17335,10 @@
         <v>21</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
@@ -17229,15 +17359,15 @@
       <c r="T31" s="11"/>
       <c r="U31" s="11"/>
       <c r="V31" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="W31" s="11"/>
       <c r="X31" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="Y31" s="11"/>
       <c r="Z31" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AA31" s="11"/>
       <c r="AB31" s="11" t="s">
@@ -17254,10 +17384,10 @@
         <v>22</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
@@ -17278,15 +17408,15 @@
       <c r="T32" s="11"/>
       <c r="U32" s="11"/>
       <c r="V32" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="W32" s="11"/>
       <c r="X32" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="Y32" s="11"/>
       <c r="Z32" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AA32" s="11"/>
       <c r="AB32" s="11" t="s">
@@ -17303,10 +17433,10 @@
         <v>23</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -17327,15 +17457,15 @@
       <c r="T33" s="11"/>
       <c r="U33" s="11"/>
       <c r="V33" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="W33" s="11"/>
       <c r="X33" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="Y33" s="11"/>
       <c r="Z33" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AA33" s="11"/>
       <c r="AB33" s="11" t="s">
@@ -17352,10 +17482,10 @@
         <v>24</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
@@ -17376,15 +17506,15 @@
       <c r="T34" s="11"/>
       <c r="U34" s="11"/>
       <c r="V34" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="W34" s="11"/>
       <c r="X34" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="Y34" s="11"/>
       <c r="Z34" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AA34" s="11"/>
       <c r="AB34" s="11" t="s">
@@ -17459,7 +17589,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="X3:Y3"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
@@ -17478,6 +17607,7 @@
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>

--- a/examples/example-timetable_school.xlsx
+++ b/examples/example-timetable_school.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Programming\cpp\entity_organisation_program\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2846AD9A-C02C-49B1-B4A8-7A94E409538E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB3C0BE-D96F-4193-A13D-99F1BFB848A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" activeTab="3" xr2:uid="{41FF037C-E733-4109-8018-268BF2C7ACEB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" activeTab="4" xr2:uid="{41FF037C-E733-4109-8018-268BF2C7ACEB}"/>
   </bookViews>
   <sheets>
     <sheet name="district" sheetId="1" r:id="rId1"/>
@@ -1594,13 +1594,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3153,153 +3153,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
       <c r="AF1" s="4"/>
       <c r="AG1" s="4"/>
     </row>
     <row r="2" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
+      <c r="D2" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
     </row>
     <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24" t="s">
+      <c r="G3" s="25"/>
+      <c r="H3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24" t="s">
+      <c r="I3" s="25"/>
+      <c r="J3" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24" t="s">
+      <c r="K3" s="25"/>
+      <c r="L3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24" t="s">
+      <c r="M3" s="25"/>
+      <c r="N3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24" t="s">
+      <c r="O3" s="25"/>
+      <c r="P3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="25" t="s">
+      <c r="Q3" s="25"/>
+      <c r="R3" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="25"/>
-      <c r="T3" s="24" t="s">
+      <c r="S3" s="26"/>
+      <c r="T3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24" t="s">
+      <c r="U3" s="25"/>
+      <c r="V3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24" t="s">
+      <c r="W3" s="25"/>
+      <c r="X3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24" t="s">
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24" t="s">
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24" t="s">
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="AE3" s="24"/>
+      <c r="AE3" s="25"/>
       <c r="AF3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
@@ -15266,6 +15266,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
@@ -15282,9 +15285,6 @@
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -15308,12 +15308,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="A1" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -15519,7 +15519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B013458-3FFF-4982-A44F-299B41089B86}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -15539,18 +15539,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -16056,8 +16056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144123B6-861A-40B0-B710-7CC8C00594E2}">
   <dimension ref="A1:AF51"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16067,149 +16067,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
     </row>
     <row r="2" spans="1:32" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
     </row>
     <row r="3" spans="1:32" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24" t="s">
+      <c r="G3" s="25"/>
+      <c r="H3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24" t="s">
+      <c r="I3" s="25"/>
+      <c r="J3" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24" t="s">
+      <c r="K3" s="25"/>
+      <c r="L3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24" t="s">
+      <c r="M3" s="25"/>
+      <c r="N3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24" t="s">
+      <c r="O3" s="25"/>
+      <c r="P3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24" t="s">
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24" t="s">
+      <c r="S3" s="25"/>
+      <c r="T3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24" t="s">
+      <c r="U3" s="25"/>
+      <c r="V3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24" t="s">
+      <c r="W3" s="25"/>
+      <c r="X3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24" t="s">
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24" t="s">
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24" t="s">
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="AE3" s="24"/>
+      <c r="AE3" s="25"/>
       <c r="AF3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="6" t="s">
         <v>271</v>
       </c>
@@ -17589,6 +17589,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
@@ -17605,9 +17608,6 @@
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
